--- a/Documentação/Manter Notas - Planilha Teste de Software.xlsx
+++ b/Documentação/Manter Notas - Planilha Teste de Software.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayco\PycharmProjects\gestaoProf-main\Documentação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gustavo.roliveira24\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64AA978C-4DEE-496E-A705-D04C3AABDF98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{96E51286-FB0E-4F43-AAF2-8F50F1B0CDEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="634" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="634" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Capa" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="79">
   <si>
     <t>Caso de teste</t>
   </si>
@@ -262,6 +262,15 @@
   </si>
   <si>
     <t>Sistema retorna mensagem de que não encontrou tal nota</t>
+  </si>
+  <si>
+    <t>Esperado</t>
+  </si>
+  <si>
+    <t>OK-Sucesso</t>
+  </si>
+  <si>
+    <t>esperado</t>
   </si>
 </sst>
 </file>
@@ -588,7 +597,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -672,8 +681,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1050,27 +1062,27 @@
     </row>
     <row r="3" spans="1:15" ht="12.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:15" ht="12.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
@@ -1137,34 +1149,34 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="39" t="s">
+      <c r="F13" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
       <c r="O13" s="36"/>
     </row>
     <row r="14" spans="1:15" ht="24.75" customHeight="1">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
       <c r="N14" t="s">
         <v>3</v>
       </c>
@@ -1209,12 +1221,12 @@
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
-      <c r="J17" s="39" t="s">
+      <c r="J17" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
       <c r="N17" t="s">
         <v>5</v>
       </c>
@@ -7183,127 +7195,127 @@
       <c r="D5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="47" t="s">
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="46"/>
+      <c r="K5" s="47"/>
     </row>
     <row r="6" spans="3:11" ht="12.75" customHeight="1">
       <c r="C6" s="16"/>
       <c r="D6" s="18"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="46"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="47"/>
     </row>
     <row r="7" spans="3:11" ht="12.75" customHeight="1">
       <c r="C7" s="16"/>
       <c r="D7" s="18"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="46"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="47"/>
     </row>
     <row r="8" spans="3:11" ht="12.75" customHeight="1">
       <c r="C8" s="16"/>
       <c r="D8" s="18"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="46"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="47"/>
     </row>
     <row r="9" spans="3:11" ht="12.75" customHeight="1">
       <c r="C9" s="16"/>
       <c r="D9" s="18"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="46"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="47"/>
     </row>
     <row r="10" spans="3:11" ht="12.75" customHeight="1">
       <c r="C10" s="16"/>
       <c r="D10" s="18"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="46"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="47"/>
     </row>
     <row r="11" spans="3:11" ht="12.75" customHeight="1">
       <c r="C11" s="16"/>
       <c r="D11" s="18"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="46"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="47"/>
     </row>
     <row r="12" spans="3:11" ht="12.75" customHeight="1">
       <c r="C12" s="16"/>
       <c r="D12" s="18"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="46"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="47"/>
     </row>
     <row r="13" spans="3:11" ht="12.75" customHeight="1">
       <c r="C13" s="16"/>
       <c r="D13" s="18"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="46"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="47"/>
     </row>
     <row r="14" spans="3:11" ht="12.75" customHeight="1">
       <c r="C14" s="16"/>
       <c r="D14" s="18"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="46"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="47"/>
     </row>
     <row r="15" spans="3:11" ht="12.75" customHeight="1">
       <c r="C15" s="16"/>
       <c r="D15" s="18"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="46"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="47"/>
     </row>
     <row r="16" spans="3:11" ht="12.75" customHeight="1">
       <c r="C16" s="3"/>
@@ -13302,14 +13314,14 @@
       <c r="B2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="47"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -13334,14 +13346,14 @@
       <c r="B3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="47"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -13366,14 +13378,14 @@
       <c r="B4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="47"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -13451,15 +13463,15 @@
     </row>
     <row r="7" spans="1:26" ht="12.75" customHeight="1">
       <c r="A7" s="4"/>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="47"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -13481,13 +13493,13 @@
     </row>
     <row r="8" spans="1:26" ht="15" customHeight="1">
       <c r="A8" s="4"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="46"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="47"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -13537,15 +13549,15 @@
     </row>
     <row r="10" spans="1:26" ht="12.75" customHeight="1">
       <c r="A10" s="17"/>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="47"/>
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
@@ -13625,15 +13637,15 @@
     </row>
     <row r="13" spans="1:26" ht="11.25" customHeight="1">
       <c r="A13" s="4"/>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="47"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -13711,15 +13723,15 @@
     </row>
     <row r="16" spans="1:26" ht="11.25" customHeight="1">
       <c r="A16" s="4"/>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="47"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -13797,15 +13809,15 @@
     </row>
     <row r="19" spans="1:26" ht="11.25" customHeight="1">
       <c r="A19" s="4"/>
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="47"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
@@ -13827,13 +13839,13 @@
     </row>
     <row r="20" spans="1:26" ht="15" customHeight="1">
       <c r="A20" s="4"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="46"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="47"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -13883,15 +13895,15 @@
     </row>
     <row r="22" spans="1:26" ht="11.25" customHeight="1">
       <c r="A22" s="4"/>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="53"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
@@ -13913,15 +13925,15 @@
     </row>
     <row r="23" spans="1:26" ht="15" customHeight="1">
       <c r="A23" s="4"/>
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="47"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
@@ -41321,8 +41333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z917"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A42" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -41338,15 +41350,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="25.5" customHeight="1">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="46"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="47"/>
       <c r="H1" s="23"/>
       <c r="I1" s="23"/>
       <c r="J1" s="23"/>
@@ -41368,15 +41380,15 @@
       <c r="Z1" s="23"/>
     </row>
     <row r="2" spans="1:26" ht="43.5" customHeight="1">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="47"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
       <c r="J2" s="23"/>
@@ -41398,15 +41410,15 @@
       <c r="Z2" s="23"/>
     </row>
     <row r="3" spans="1:26" ht="29.25" customHeight="1">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="46"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="47"/>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
       <c r="J3" s="23"/>
@@ -41428,25 +41440,25 @@
       <c r="Z3" s="23"/>
     </row>
     <row r="4" spans="1:26" ht="30.75" customHeight="1">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="59" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="58" t="s">
+      <c r="F4" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="58" t="s">
+      <c r="G4" s="59" t="s">
         <v>29</v>
       </c>
       <c r="H4" s="23"/>
@@ -41470,13 +41482,13 @@
       <c r="Z4" s="23"/>
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A5" s="59"/>
-      <c r="B5" s="59"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="60"/>
       <c r="C5" s="24"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
       <c r="H5" s="23"/>
       <c r="I5" s="23"/>
       <c r="J5" s="23"/>
@@ -41504,10 +41516,18 @@
       <c r="B6" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="25"/>
+      <c r="C6" s="34">
+        <v>5</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="35">
+        <v>44749</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>77</v>
+      </c>
       <c r="G6" s="25"/>
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
@@ -41536,10 +41556,18 @@
       <c r="B7" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="25"/>
+      <c r="C7" s="25">
+        <v>2</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="35">
+        <v>44749</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>77</v>
+      </c>
       <c r="G7" s="34"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
@@ -41568,10 +41596,18 @@
       <c r="B8" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="25"/>
+      <c r="C8" s="25">
+        <v>10</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="35">
+        <v>44749</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>77</v>
+      </c>
       <c r="G8" s="34"/>
       <c r="H8" s="27"/>
       <c r="I8" s="27"/>
@@ -41600,10 +41636,18 @@
       <c r="B9" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="25"/>
+      <c r="C9" s="25">
+        <v>6.5</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="35">
+        <v>44749</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>77</v>
+      </c>
       <c r="G9" s="34"/>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
@@ -41633,9 +41677,15 @@
         <v>48</v>
       </c>
       <c r="C10" s="25"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="25"/>
+      <c r="D10" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="35">
+        <v>44749</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>77</v>
+      </c>
       <c r="G10" s="34"/>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
@@ -41658,15 +41708,15 @@
       <c r="Z10" s="27"/>
     </row>
     <row r="11" spans="1:26" ht="26.25" customHeight="1">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="46"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="47"/>
       <c r="H11" s="23"/>
       <c r="I11" s="23"/>
       <c r="J11" s="23"/>
@@ -41688,25 +41738,25 @@
       <c r="Z11" s="23"/>
     </row>
     <row r="12" spans="1:26" ht="30.75" customHeight="1">
-      <c r="A12" s="58" t="s">
+      <c r="A12" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="59" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="58" t="s">
+      <c r="E12" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="58" t="s">
+      <c r="F12" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="58" t="s">
+      <c r="G12" s="59" t="s">
         <v>29</v>
       </c>
       <c r="H12" s="23"/>
@@ -41730,13 +41780,13 @@
       <c r="Z12" s="23"/>
     </row>
     <row r="13" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A13" s="59"/>
-      <c r="B13" s="59"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="60"/>
       <c r="C13" s="24"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
       <c r="H13" s="23"/>
       <c r="I13" s="23"/>
       <c r="J13" s="23"/>
@@ -41761,13 +41811,21 @@
       <c r="A14" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
+      <c r="C14" s="25">
+        <v>6</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="35">
+        <v>44749</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>77</v>
+      </c>
       <c r="G14" s="25"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
@@ -41790,15 +41848,15 @@
       <c r="Z14" s="27"/>
     </row>
     <row r="15" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="46"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="47"/>
       <c r="H15" s="23"/>
       <c r="I15" s="23"/>
       <c r="J15" s="23"/>
@@ -41820,25 +41878,25 @@
       <c r="Z15" s="23"/>
     </row>
     <row r="16" spans="1:26" ht="30.75" customHeight="1">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="59" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="58" t="s">
+      <c r="D16" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="58" t="s">
+      <c r="E16" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="58" t="s">
+      <c r="F16" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="58" t="s">
+      <c r="G16" s="59" t="s">
         <v>29</v>
       </c>
       <c r="H16" s="23"/>
@@ -41862,13 +41920,13 @@
       <c r="Z16" s="23"/>
     </row>
     <row r="17" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A17" s="59"/>
-      <c r="B17" s="59"/>
+      <c r="A17" s="60"/>
+      <c r="B17" s="60"/>
       <c r="C17" s="24"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
       <c r="J17" s="23"/>
@@ -41896,10 +41954,18 @@
       <c r="B18" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="25"/>
+      <c r="C18" s="25">
+        <v>7</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="38">
+        <v>44749</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>77</v>
+      </c>
       <c r="G18" s="25"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
@@ -41928,10 +41994,18 @@
       <c r="B19" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="25"/>
+      <c r="C19" s="25">
+        <v>2</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="38">
+        <v>44749</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>77</v>
+      </c>
       <c r="G19" s="25"/>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
@@ -41960,10 +42034,18 @@
       <c r="B20" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="25"/>
+      <c r="C20" s="25">
+        <v>3</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="39">
+        <v>44749</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>77</v>
+      </c>
       <c r="G20" s="25"/>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
@@ -41986,15 +42068,15 @@
       <c r="Z20" s="27"/>
     </row>
     <row r="21" spans="1:26" ht="27.75" customHeight="1">
-      <c r="A21" s="57" t="s">
+      <c r="A21" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="46"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="47"/>
       <c r="H21" s="23"/>
       <c r="I21" s="23"/>
       <c r="J21" s="23"/>
@@ -42016,25 +42098,25 @@
       <c r="Z21" s="23"/>
     </row>
     <row r="22" spans="1:26" ht="30.75" customHeight="1">
-      <c r="A22" s="58" t="s">
+      <c r="A22" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="58" t="s">
+      <c r="B22" s="59" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="58" t="s">
+      <c r="D22" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="58" t="s">
+      <c r="E22" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="58" t="s">
+      <c r="F22" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="58" t="s">
+      <c r="G22" s="59" t="s">
         <v>29</v>
       </c>
       <c r="H22" s="23"/>
@@ -42058,13 +42140,13 @@
       <c r="Z22" s="23"/>
     </row>
     <row r="23" spans="1:26" ht="30" customHeight="1">
-      <c r="A23" s="59"/>
-      <c r="B23" s="59"/>
+      <c r="A23" s="60"/>
+      <c r="B23" s="60"/>
       <c r="C23" s="24"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
       <c r="H23" s="23"/>
       <c r="I23" s="23"/>
       <c r="J23" s="23"/>
@@ -42092,10 +42174,18 @@
       <c r="B24" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="25"/>
+      <c r="C24" s="25">
+        <v>9</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="38">
+        <v>44749</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>77</v>
+      </c>
       <c r="G24" s="25"/>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
@@ -42124,10 +42214,18 @@
       <c r="B25" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
+      <c r="C25" s="25">
+        <v>2</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="35">
+        <v>44749</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>77</v>
+      </c>
       <c r="G25" s="25"/>
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
@@ -42150,15 +42248,15 @@
       <c r="Z25" s="27"/>
     </row>
     <row r="26" spans="1:26" ht="48.75" customHeight="1">
-      <c r="A26" s="57" t="s">
+      <c r="A26" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="46"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="47"/>
       <c r="H26" s="23"/>
       <c r="I26" s="23"/>
       <c r="J26" s="23"/>
@@ -42180,25 +42278,25 @@
       <c r="Z26" s="23"/>
     </row>
     <row r="27" spans="1:26" ht="27.75" customHeight="1">
-      <c r="A27" s="58" t="s">
+      <c r="A27" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="58" t="s">
+      <c r="B27" s="59" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="58" t="s">
+      <c r="D27" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="58" t="s">
+      <c r="E27" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="58" t="s">
+      <c r="F27" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="G27" s="58" t="s">
+      <c r="G27" s="59" t="s">
         <v>29</v>
       </c>
       <c r="H27" s="23"/>
@@ -42222,13 +42320,13 @@
       <c r="Z27" s="23"/>
     </row>
     <row r="28" spans="1:26" ht="48" customHeight="1">
-      <c r="A28" s="59"/>
-      <c r="B28" s="59"/>
+      <c r="A28" s="60"/>
+      <c r="B28" s="60"/>
       <c r="C28" s="24"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
       <c r="H28" s="23"/>
       <c r="I28" s="23"/>
       <c r="J28" s="23"/>
@@ -42256,10 +42354,18 @@
       <c r="B29" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="25"/>
+      <c r="C29" s="25">
+        <v>8</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="38">
+        <v>44749</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>77</v>
+      </c>
       <c r="G29" s="25"/>
       <c r="H29" s="23"/>
       <c r="I29" s="23"/>
@@ -42288,10 +42394,18 @@
       <c r="B30" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
+      <c r="C30" s="25">
+        <v>3</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="35">
+        <v>44749</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>77</v>
+      </c>
       <c r="G30" s="25"/>
       <c r="H30" s="23"/>
       <c r="I30" s="23"/>
@@ -42320,10 +42434,18 @@
       <c r="B31" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
+      <c r="C31" s="25">
+        <v>79</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="35">
+        <v>44749</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>77</v>
+      </c>
       <c r="G31" s="25"/>
       <c r="H31" s="23"/>
       <c r="I31" s="23"/>
@@ -42346,15 +42468,15 @@
       <c r="Z31" s="23"/>
     </row>
     <row r="32" spans="1:26" ht="33.75" customHeight="1">
-      <c r="A32" s="57" t="s">
+      <c r="A32" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="62"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="63"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="64"/>
       <c r="H32" s="23"/>
       <c r="I32" s="23"/>
       <c r="J32" s="23"/>
@@ -42376,25 +42498,25 @@
       <c r="Z32" s="23"/>
     </row>
     <row r="33" spans="1:26" ht="29.25" customHeight="1">
-      <c r="A33" s="58" t="s">
+      <c r="A33" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="58" t="s">
+      <c r="B33" s="59" t="s">
         <v>24</v>
       </c>
       <c r="C33" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D33" s="58" t="s">
+      <c r="D33" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="E33" s="58" t="s">
+      <c r="E33" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="F33" s="58" t="s">
+      <c r="F33" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="G33" s="58" t="s">
+      <c r="G33" s="59" t="s">
         <v>29</v>
       </c>
       <c r="H33" s="23"/>
@@ -42418,13 +42540,13 @@
       <c r="Z33" s="23"/>
     </row>
     <row r="34" spans="1:26" ht="57" customHeight="1">
-      <c r="A34" s="64"/>
-      <c r="B34" s="64"/>
+      <c r="A34" s="65"/>
+      <c r="B34" s="65"/>
       <c r="C34" s="24"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="64"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="65"/>
       <c r="H34" s="23"/>
       <c r="I34" s="23"/>
       <c r="J34" s="23"/>
@@ -42452,10 +42574,18 @@
       <c r="B35" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="C35" s="25"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="25"/>
+      <c r="C35" s="25">
+        <v>5</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35" s="39">
+        <v>44749</v>
+      </c>
+      <c r="F35" s="25" t="s">
+        <v>77</v>
+      </c>
       <c r="G35" s="25"/>
       <c r="H35" s="23"/>
       <c r="I35" s="23"/>
@@ -42478,15 +42608,15 @@
       <c r="Z35" s="23"/>
     </row>
     <row r="36" spans="1:26" ht="33" customHeight="1">
-      <c r="A36" s="57" t="s">
+      <c r="A36" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="B36" s="62"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="63"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="64"/>
       <c r="H36" s="23"/>
       <c r="I36" s="23"/>
       <c r="J36" s="23"/>
@@ -42508,25 +42638,25 @@
       <c r="Z36" s="23"/>
     </row>
     <row r="37" spans="1:26" ht="37.5" customHeight="1">
-      <c r="A37" s="58" t="s">
+      <c r="A37" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="58" t="s">
+      <c r="B37" s="59" t="s">
         <v>24</v>
       </c>
       <c r="C37" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D37" s="58" t="s">
+      <c r="D37" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="E37" s="58" t="s">
+      <c r="E37" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="F37" s="58" t="s">
+      <c r="F37" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="G37" s="58" t="s">
+      <c r="G37" s="59" t="s">
         <v>29</v>
       </c>
       <c r="H37" s="23"/>
@@ -42550,13 +42680,13 @@
       <c r="Z37" s="23"/>
     </row>
     <row r="38" spans="1:26" ht="27.75" customHeight="1">
-      <c r="A38" s="64"/>
-      <c r="B38" s="64"/>
+      <c r="A38" s="65"/>
+      <c r="B38" s="65"/>
       <c r="C38" s="24"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="64"/>
-      <c r="G38" s="64"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="65"/>
       <c r="H38" s="23"/>
       <c r="I38" s="23"/>
       <c r="J38" s="23"/>
@@ -42584,10 +42714,18 @@
       <c r="B39" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="25"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="25"/>
+      <c r="C39" s="25">
+        <v>5</v>
+      </c>
+      <c r="D39" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="E39" s="39">
+        <v>44749</v>
+      </c>
+      <c r="F39" s="25" t="s">
+        <v>77</v>
+      </c>
       <c r="G39" s="25"/>
       <c r="H39" s="23"/>
       <c r="I39" s="23"/>
@@ -42610,15 +42748,15 @@
       <c r="Z39" s="23"/>
     </row>
     <row r="40" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A40" s="57" t="s">
+      <c r="A40" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="B40" s="62"/>
-      <c r="C40" s="62"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="63"/>
+      <c r="B40" s="63"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="63"/>
+      <c r="G40" s="64"/>
       <c r="H40" s="23"/>
       <c r="I40" s="23"/>
       <c r="J40" s="23"/>
@@ -42640,25 +42778,25 @@
       <c r="Z40" s="23"/>
     </row>
     <row r="41" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A41" s="58" t="s">
+      <c r="A41" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B41" s="58" t="s">
+      <c r="B41" s="59" t="s">
         <v>24</v>
       </c>
       <c r="C41" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="58" t="s">
+      <c r="D41" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="E41" s="58" t="s">
+      <c r="E41" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="F41" s="58" t="s">
+      <c r="F41" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="G41" s="58" t="s">
+      <c r="G41" s="59" t="s">
         <v>29</v>
       </c>
       <c r="H41" s="23"/>
@@ -42682,13 +42820,13 @@
       <c r="Z41" s="23"/>
     </row>
     <row r="42" spans="1:26" ht="26.25" customHeight="1">
-      <c r="A42" s="64"/>
-      <c r="B42" s="64"/>
+      <c r="A42" s="65"/>
+      <c r="B42" s="65"/>
       <c r="C42" s="24"/>
-      <c r="D42" s="64"/>
-      <c r="E42" s="64"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="64"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="65"/>
       <c r="H42" s="23"/>
       <c r="I42" s="23"/>
       <c r="J42" s="23"/>
@@ -42716,10 +42854,18 @@
       <c r="B43" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="C43" s="25"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="25"/>
+      <c r="C43" s="25">
+        <v>6</v>
+      </c>
+      <c r="D43" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="E43" s="39">
+        <v>44749</v>
+      </c>
+      <c r="F43" s="25" t="s">
+        <v>77</v>
+      </c>
       <c r="G43" s="25"/>
       <c r="H43" s="23"/>
       <c r="I43" s="23"/>
@@ -42742,15 +42888,15 @@
       <c r="Z43" s="23"/>
     </row>
     <row r="44" spans="1:26" ht="28.5" customHeight="1">
-      <c r="A44" s="57" t="s">
+      <c r="A44" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="B44" s="62"/>
-      <c r="C44" s="62"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="62"/>
-      <c r="F44" s="62"/>
-      <c r="G44" s="63"/>
+      <c r="B44" s="63"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="64"/>
       <c r="H44" s="23"/>
       <c r="I44" s="23"/>
       <c r="J44" s="23"/>
@@ -42772,25 +42918,25 @@
       <c r="Z44" s="23"/>
     </row>
     <row r="45" spans="1:26" ht="26.25" customHeight="1">
-      <c r="A45" s="58" t="s">
+      <c r="A45" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B45" s="58" t="s">
+      <c r="B45" s="59" t="s">
         <v>24</v>
       </c>
       <c r="C45" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D45" s="58" t="s">
+      <c r="D45" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="E45" s="58" t="s">
+      <c r="E45" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="F45" s="58" t="s">
+      <c r="F45" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="G45" s="58" t="s">
+      <c r="G45" s="59" t="s">
         <v>29</v>
       </c>
       <c r="H45" s="23"/>
@@ -42814,13 +42960,13 @@
       <c r="Z45" s="23"/>
     </row>
     <row r="46" spans="1:26" ht="30.75" customHeight="1">
-      <c r="A46" s="64"/>
-      <c r="B46" s="64"/>
+      <c r="A46" s="65"/>
+      <c r="B46" s="65"/>
       <c r="C46" s="24"/>
-      <c r="D46" s="64"/>
-      <c r="E46" s="64"/>
-      <c r="F46" s="64"/>
-      <c r="G46" s="64"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="65"/>
       <c r="H46" s="23"/>
       <c r="I46" s="23"/>
       <c r="J46" s="23"/>
@@ -42848,10 +42994,18 @@
       <c r="B47" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="25"/>
+      <c r="C47" s="25">
+        <v>8</v>
+      </c>
+      <c r="D47" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="E47" s="39">
+        <v>44749</v>
+      </c>
+      <c r="F47" s="25" t="s">
+        <v>77</v>
+      </c>
       <c r="G47" s="25"/>
       <c r="H47" s="23"/>
       <c r="I47" s="23"/>
@@ -42874,15 +43028,15 @@
       <c r="Z47" s="23"/>
     </row>
     <row r="48" spans="1:26" ht="36" customHeight="1">
-      <c r="A48" s="57" t="s">
+      <c r="A48" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="B48" s="62"/>
-      <c r="C48" s="62"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="62"/>
-      <c r="F48" s="62"/>
-      <c r="G48" s="63"/>
+      <c r="B48" s="63"/>
+      <c r="C48" s="63"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="64"/>
       <c r="H48" s="23"/>
       <c r="I48" s="23"/>
       <c r="J48" s="23"/>
@@ -42904,25 +43058,25 @@
       <c r="Z48" s="23"/>
     </row>
     <row r="49" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A49" s="58" t="s">
+      <c r="A49" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B49" s="58" t="s">
+      <c r="B49" s="59" t="s">
         <v>24</v>
       </c>
       <c r="C49" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D49" s="58" t="s">
+      <c r="D49" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="E49" s="58" t="s">
+      <c r="E49" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="F49" s="58" t="s">
+      <c r="F49" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="G49" s="58" t="s">
+      <c r="G49" s="59" t="s">
         <v>29</v>
       </c>
       <c r="H49" s="23"/>
@@ -42946,13 +43100,13 @@
       <c r="Z49" s="23"/>
     </row>
     <row r="50" spans="1:26" ht="38.25" customHeight="1">
-      <c r="A50" s="64"/>
-      <c r="B50" s="64"/>
+      <c r="A50" s="65"/>
+      <c r="B50" s="65"/>
       <c r="C50" s="24"/>
-      <c r="D50" s="64"/>
-      <c r="E50" s="64"/>
-      <c r="F50" s="64"/>
-      <c r="G50" s="64"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="65"/>
       <c r="H50" s="23"/>
       <c r="I50" s="23"/>
       <c r="J50" s="23"/>
@@ -42980,10 +43134,18 @@
       <c r="B51" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="C51" s="25"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="37"/>
-      <c r="F51" s="25"/>
+      <c r="C51" s="25">
+        <v>6</v>
+      </c>
+      <c r="D51" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="E51" s="39">
+        <v>44749</v>
+      </c>
+      <c r="F51" s="25" t="s">
+        <v>77</v>
+      </c>
       <c r="G51" s="25"/>
       <c r="H51" s="23"/>
       <c r="I51" s="23"/>
@@ -67329,7 +67491,7 @@
     <mergeCell ref="G27:G28"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
-  <dataValidations count="1">
+  <dataValidations xWindow="1051" yWindow="715" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="F24:F25 F14 F18:F20 F6:F10 F29:F31 F35 F39 F43 F47 F51" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"OK-Sucesso,NOK-Erro,NE-Não Executado"</formula1>
     </dataValidation>
@@ -67339,6 +67501,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B5FCC05C4BAB3A49AE969D598778A5BE" ma:contentTypeVersion="2" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="be7edb50e0b1171ebf8bbef84b3c768e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a92eb9f6-d8f8-4a16-8f9c-2765c37e2af7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a56fba807be6361632dff4e17d20dc1" ns2:_="">
     <xsd:import namespace="a92eb9f6-d8f8-4a16-8f9c-2765c37e2af7"/>
@@ -67470,22 +67647,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B343455A-6D68-4B0A-A5CA-A00A76109566}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDB17246-A840-4FB0-84E2-13CBB1730C02}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB280386-773B-4451-9432-0687FD7115B6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -67501,21 +67680,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B343455A-6D68-4B0A-A5CA-A00A76109566}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDB17246-A840-4FB0-84E2-13CBB1730C02}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>